--- a/biology/Botanique/Carl_Frederik_Albert_Christensen/Carl_Frederik_Albert_Christensen.xlsx
+++ b/biology/Botanique/Carl_Frederik_Albert_Christensen/Carl_Frederik_Albert_Christensen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Frederik Albert Christensen est un botaniste danois, né le 16 janvier 1872 dans l'île de Lolland au Danemark et mort le 24 novembre 1942.
-Sa principale contribution concerne la systématique des fougères. Ses collections de fougères sont  déposées au musée d'histoire naturelle de Londres[1].
+Sa principale contribution concerne la systématique des fougères. Ses collections de fougères sont  déposées au musée d'histoire naturelle de Londres.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ueber Einige Farne in O. Swartz Herbarium - Arkiv för Botanik, Vol. 9, n° 11. Stockholm, 1909.
 On Some Species of Ferns Collected by Dr. C. Skottsberg in Temperate South America - Arkiv för Botanik, Vol. 10, n° 2. Stockholm, 1910.
@@ -552,7 +566,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Un genre lui a été dédié : Christensenia Maxon de la famille des Marattiacées, ainsi que les espèces suivantes :
 Abrotanella christensenii Petrie - Astéracée de Nouvelle-Zélande
